--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1582521.834019954</v>
+        <v>1654187.59360727</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6716512.629646878</v>
+        <v>7156190.823050159</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6651206416953</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>43.10482199277238</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -868,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>76.1273791797441</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>29.09274954963706</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>118.969354094449</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>212.7834550728489</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>106.7804784950563</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>268.759174201138</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>143.7392464949282</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
-        <v>343.9251923612357</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.5842803414587</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.3992029774712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>124.229055783122</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>264.8780527339515</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2561,7 +2563,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>127.8007835420382</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>223.9068582487632</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>50.59450660889306</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>163.4929392938537</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3475,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3661,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>260.8721231905913</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3794,19 +3796,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
-        <v>17.83771408212542</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.2398067845343</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>166.4095674067253</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>35.61854917470159</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934842</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>561.1048893067843</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>385.6855755272941</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4331,25 +4333,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L2" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L2" t="n">
-        <v>1100.603903091853</v>
-      </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630124</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585014</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>1128.080930530456</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>1128.080930530456</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530456</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530456</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9200589091701</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>331.6032860359408</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>331.6032860359408</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>331.6032860359408</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4516,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.614269593831</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>164.7135396071311</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1006.023847611597</v>
-      </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.462633885361</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
         <v>756.3555336978366</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.3625747002551</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>792.3900115791711</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2148.486023442845</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1905.146675668745</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1905.146675668745</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1623.435208276773</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1623.435208276773</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1380.871311722579</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.528543412321</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1133.6911139303</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>706.7903839436005</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.53947822183</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>820.5663062084095</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>648.5937430873255</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1899.878522481758</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1619.694073982062</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.982606590091</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1063.130202762604</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>820.5663062084095</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>820.5663062084095</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.159152100451</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1616.159152100451</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1192.866531285451</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>766.8895914333086</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>865.123762894595</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1633.224300044002</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.665912441805</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839607</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2021.49642214556</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2021.49642214556</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1616.159152100451</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>926.8645663447228</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>926.8645663447228</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>926.8645663447228</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>926.8645663447228</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>926.8645663447228</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>904.2984362694593</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>732.3258731483753</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>569.009100275146</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>402.8008944279995</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>230.93912020256</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2074.960130429055</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1929.76897235337</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.057504961399</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1373.205101133912</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.641204579717</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>904.2984362694593</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1243.321127097312</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>816.4203971106119</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>469.0212129073435</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>469.0212129073435</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559901</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965857</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2480.226760266204</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2068.506761433951</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1663.169491388842</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.6292658551851</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>499.6292658551851</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>336.3124929819558</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3124929819558</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>164.4507187565162</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.6292658551851</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,37 +5503,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710919</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>4025.820723818557</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808982</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1550.684777446425</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1308.12088089223</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.677241521047</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,19 +5755,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.5554397491844</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>371.5828766281004</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0989818976742</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.72140846125</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.3940204581201</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>440.421457337036</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
         <v>440.421457337036</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1601.687756943839</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1319.976289551867</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.12388572438</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>802.5599891701856</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.5599891701856</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.571062138587</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>832.5984990175027</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>669.2817261442734</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.153331232334</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.300927404847</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1194.737030850652</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1194.737030850652</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>606.7404520798269</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>434.7678889587429</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1596.034188565545</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1314.322721173574</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1039.470317346087</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>796.9064207918925</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>796.9064207918925</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1782.102586447038</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1782.102586447038</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.8401132784822</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>345.8675501573982</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6898,10 +6900,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>934.3488503008059</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.006081990548</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6950,10 +6952,10 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.655655934086</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>2112.580693338092</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1837.728289510605</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.16439295641</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>1368.821624646152</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.4259316760281</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>750.4259316760281</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1992.33777973203</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1712.153331232334</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1430.441863840363</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1166.934668698352</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.934668698352</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>940.5919003880938</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1800.873494217763</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.972764231063</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>950.6801434160632</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>524.7032035639207</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>99.57902175332094</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>865.123762894595</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292398</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2466.006987690201</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2632.441857341546</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2632.441857341546</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2220.721858509293</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2220.721858509293</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>1425.419894259098</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>1633.224300044002</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>2433.665912441805</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>3234.107524839607</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>574.7246936904622</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7521305693782</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7521305693782</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>236.5439247222317</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68215049679215</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679215</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>947.8338496229746</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2699530687797</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>574.7246936904622</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>659.6733526114974</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>232.7726226247975</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>232.7726226247975</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>232.7726226247975</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2381.073683267897</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3181.515295665699</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.565375292398</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1011.869042399644</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>1011.869042399644</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>459.4832504061479</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,7 +8309,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>460.2559062950365</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150667</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>455.0528931487048</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8693,22 +8695,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>813.2903913331761</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>414.9524948295036</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9963,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1105.024507443985</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,10 +10126,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10437,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>151.96049528493</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>813.250087789768</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010013</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.2481384166263</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>123.6682620015185</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.6433575197706</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
-        <v>75.13450224561399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.49506028569667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.6801376496842</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.45454936137502</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24142,7 +24144,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>12.50455128074725</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.74534024663674</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>53.47574576593556</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>189.5437509797599</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.759898196019407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>11.23175659862085</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
-        <v>336.0768066428876</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.83953384262105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>254.4633725857684</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>134.6342883151715</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>458821.9935114572</v>
+        <v>609301.393802228</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458821.9935114572</v>
+        <v>609301.3938022282</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618764.1500902878</v>
+        <v>618764.1500902877</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618764.1500902878</v>
+        <v>618764.1500902877</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618764.1500902877</v>
+        <v>618764.1500902878</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618764.1500902877</v>
+        <v>618764.1500902878</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458821.9935114571</v>
+        <v>609301.393802228</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458821.9935114572</v>
+        <v>609301.3938022282</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
+        <v>407709.8676078143</v>
+      </c>
+      <c r="D2" t="n">
         <v>407709.8676078141</v>
       </c>
-      <c r="D2" t="n">
-        <v>407709.8676078143</v>
-      </c>
       <c r="E2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
         <v>393421.2821962134</v>
       </c>
       <c r="H2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962135</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962132</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26436,10 +26438,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2894.192650086537</v>
+        <v>-2894.192650086479</v>
       </c>
       <c r="C6" t="n">
+        <v>183510.5407646507</v>
+      </c>
+      <c r="D6" t="n">
         <v>183510.5407646506</v>
       </c>
-      <c r="D6" t="n">
-        <v>183510.5407646507</v>
-      </c>
       <c r="E6" t="n">
-        <v>145445.2828290025</v>
+        <v>74933.63536998146</v>
       </c>
       <c r="F6" t="n">
-        <v>220776.2339824646</v>
+        <v>282365.9229865426</v>
       </c>
       <c r="G6" t="n">
-        <v>157348.5331403317</v>
+        <v>278613.3108683908</v>
       </c>
       <c r="H6" t="n">
-        <v>286238.9329518722</v>
+        <v>286238.9329518723</v>
       </c>
       <c r="I6" t="n">
-        <v>286238.9329518722</v>
+        <v>286238.9329518721</v>
       </c>
       <c r="J6" t="n">
         <v>140705.2630170556</v>
       </c>
       <c r="K6" t="n">
-        <v>286238.9329518721</v>
+        <v>286238.932951872</v>
       </c>
       <c r="L6" t="n">
         <v>286238.9329518721</v>
       </c>
       <c r="M6" t="n">
-        <v>223364.9959864983</v>
+        <v>113108.4417462323</v>
       </c>
       <c r="N6" t="n">
-        <v>286238.9329518721</v>
+        <v>286238.9329518719</v>
       </c>
       <c r="O6" t="n">
-        <v>220776.2339824647</v>
+        <v>282365.9229865426</v>
       </c>
       <c r="P6" t="n">
-        <v>220776.2339824646</v>
+        <v>282365.9229865425</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>245.3945739651544</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4895780159378</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>342.9323154271056</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>139.3409474564194</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>158.4132499202498</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>206.2762395340008</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>134.1254758013027</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>437.0840165728146</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>432.5378064344752</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>775.8591284337443</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>376.6404523968807</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1083.681479230444</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,10 +36846,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>130.1896540801013</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>775.859128433744</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867717</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.12346381202826</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654187.59360727</v>
+        <v>1653469.603492412</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>321.4657884121262</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -670,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -831,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,19 +867,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>0.805618920998063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>278.6509688784281</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.969354094449</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372656</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1141,16 +1141,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1192,16 +1192,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>326.6257644515839</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0.7573427009619353</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>327.8597686516896</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>84.9431138244401</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1609,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>42.01896050268161</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>167.8164790129223</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>102.1026425880272</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>105.0134374522401</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>180.8804088562425</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971666</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>168.1487656894603</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>1941.771922011108</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4336,16 +4336,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>1957.579882262234</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,46 +4573,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
         <v>144.2667933089716</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>145.7376999733464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N11" t="n">
         <v>2994.337835136581</v>
@@ -5086,7 +5086,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>262.2931109151151</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>767.6724395326037</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>595.6998764115197</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F13" t="n">
         <v>509.8987513363276</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>957.8384082446693</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
         <v>1262.305438882635</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5360,19 +5360,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P15" t="n">
         <v>1362.599788512017</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>624.3865878905749</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>458.1783820434284</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>286.3166078179888</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>787.7033607638042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5527,13 +5527,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,16 +6229,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
         <v>3833.214576747414</v>
@@ -6262,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>440.421457337036</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2179.581758406808</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1936.242410632708</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1656.057962133013</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1374.346494741041</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1099.494090913554</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>856.9301943593596</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>630.5874260491016</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6788,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1491.073727921289</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>1248.509831367094</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>1022.167063056836</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
         <v>274.1644876312681</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
         <v>2111.574999549778</v>
@@ -7411,28 +7411,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1130.984051391754</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7444,19 +7444,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>944.322395923808</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
         <v>432.8421946614841</v>
@@ -7651,16 +7651,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>944.322395923808</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>944.322395923808</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>944.322395923808</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8221,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>380.3086605601452</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468032</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8768,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>184.4658275011364</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>107.1869721826501</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>198.1293616011689</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9175,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9245,13 +9245,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9491,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>749.7130252568753</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10907,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>710.8187903865954</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>997.2808002453501</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11311,7 +11311,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>73.42412869296896</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>76.74049132005689</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.5754395060286</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>2.326677470262865</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>59.69064356315806</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.33105441802925</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>65.23940003763302</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>91.2234709329696</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>71.98949189919264</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609301.3938022282</v>
+        <v>609301.393802228</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618764.1500902877</v>
+        <v>618764.1500902878</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618764.1500902878</v>
+        <v>618764.1500902877</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618764.1500902878</v>
+        <v>618764.1500902877</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609301.3938022282</v>
+        <v>609301.393802228</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="E2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="I2" t="n">
+        <v>393421.2821962132</v>
+      </c>
+      <c r="J2" t="n">
         <v>393421.2821962134</v>
       </c>
-      <c r="H2" t="n">
-        <v>393421.2821962135</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>393421.2821962133</v>
-      </c>
-      <c r="J2" t="n">
-        <v>393421.2821962133</v>
-      </c>
-      <c r="K2" t="n">
-        <v>393421.2821962132</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
     </row>
     <row r="3">
@@ -26426,10 +26426,10 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
+        <v>28980.6795211164</v>
+      </c>
+      <c r="F4" t="n">
         <v>28980.67952111639</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26441,7 +26441,7 @@
         <v>29432.28705591151</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.28705591146</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26456,7 +26456,7 @@
         <v>29432.28705591151</v>
       </c>
       <c r="O4" t="n">
-        <v>28980.67952111639</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
         <v>28980.6795211164</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2894.192650086479</v>
+        <v>-2894.192650086625</v>
       </c>
       <c r="C6" t="n">
+        <v>183510.5407646506</v>
+      </c>
+      <c r="D6" t="n">
         <v>183510.5407646507</v>
       </c>
-      <c r="D6" t="n">
-        <v>183510.5407646506</v>
-      </c>
       <c r="E6" t="n">
-        <v>74933.63536998146</v>
+        <v>74861.11827358132</v>
       </c>
       <c r="F6" t="n">
-        <v>282365.9229865426</v>
+        <v>282293.4058901423</v>
       </c>
       <c r="G6" t="n">
-        <v>278613.3108683908</v>
+        <v>278562.2802062064</v>
       </c>
       <c r="H6" t="n">
-        <v>286238.9329518723</v>
+        <v>286187.9022896878</v>
       </c>
       <c r="I6" t="n">
-        <v>286238.9329518721</v>
+        <v>286187.9022896877</v>
       </c>
       <c r="J6" t="n">
-        <v>140705.2630170556</v>
+        <v>140654.2323548715</v>
       </c>
       <c r="K6" t="n">
-        <v>286238.932951872</v>
+        <v>286187.9022896878</v>
       </c>
       <c r="L6" t="n">
-        <v>286238.9329518721</v>
+        <v>286187.9022896878</v>
       </c>
       <c r="M6" t="n">
-        <v>113108.4417462323</v>
+        <v>113057.4110840484</v>
       </c>
       <c r="N6" t="n">
-        <v>286238.9329518719</v>
+        <v>286187.9022896878</v>
       </c>
       <c r="O6" t="n">
-        <v>282365.9229865426</v>
+        <v>282293.405890142</v>
       </c>
       <c r="P6" t="n">
-        <v>282365.9229865425</v>
+        <v>282293.4058901423</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.1659342747066</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3345117074836</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27432,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>276.5769850937007</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>113.7764673242285</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202498</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.4304752807858</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>74.65813289307465</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.6252613137368</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>163.854713167803</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35895,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35965,13 +35965,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>713.948424462066</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>396.8624089123078</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>675.0541895917861</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38031,7 +38031,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
